--- a/data/literacy_RnB0912.xlsx
+++ b/data/literacy_RnB0912.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="52500" yWindow="7700" windowWidth="51200" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="3140" yWindow="680" windowWidth="22460" windowHeight="15240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -1586,7 +1586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Y9" workbookViewId="0">
       <selection activeCell="AK9" sqref="AK9"/>
     </sheetView>
   </sheetViews>
